--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_S_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_S_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1432" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -419,10 +431,10 @@
       <c r="I10">
         <f>((C10-C9)^2+(D10- D9)^2)^.5</f>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L10" t="n">
@@ -466,28 +478,28 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="2">
+      <c r="A12" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B12" t="s" s="2">
+      <c r="B12" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C12" t="s" s="2">
+      <c r="C12" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D12" t="s" s="2">
+      <c r="D12" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E12" t="s" s="2">
+      <c r="E12" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F12" t="s" s="2">
+      <c r="F12" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G12" t="s" s="2">
+      <c r="G12" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H12" t="s" s="2">
+      <c r="H12" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -512,28 +524,28 @@
       </c>
     </row>
     <row r="14">
-      <c r="B14" t="s" s="2">
+      <c r="B14" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C14" t="s" s="2">
+      <c r="C14" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D14" t="s" s="2">
+      <c r="D14" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E14" t="s" s="2">
+      <c r="E14" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F14" t="s" s="2">
+      <c r="F14" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G14" t="s" s="2">
+      <c r="G14" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H14" t="s" s="2">
+      <c r="H14" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I14" t="s" s="2">
+      <c r="I14" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -737,10 +749,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -784,28 +796,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
+      <c r="C23" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D23" t="s" s="2">
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -830,28 +842,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1055,10 +1067,10 @@
       <c r="I32">
         <f>((C32-C31)^2+(D32- D31)^2)^.5</f>
       </c>
-      <c r="J32" s="2" t="s">
+      <c r="J32" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="K32" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L32" t="n">
@@ -1102,28 +1114,28 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s" s="2">
+      <c r="A34" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B34" t="s" s="2">
+      <c r="B34" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C34" t="s" s="2">
+      <c r="C34" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D34" t="s" s="2">
+      <c r="D34" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E34" t="s" s="2">
+      <c r="E34" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F34" t="s" s="2">
+      <c r="F34" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G34" t="s" s="2">
+      <c r="G34" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H34" t="s" s="2">
+      <c r="H34" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1148,28 +1160,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I36" t="s" s="2">
+      <c r="I36" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1373,10 +1385,10 @@
       <c r="I43">
         <f>((C43-C42)^2+(D43- D42)^2)^.5</f>
       </c>
-      <c r="J43" s="2" t="s">
+      <c r="J43" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="K43" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L43" t="n">
@@ -1420,28 +1432,28 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="s" s="2">
+      <c r="A45" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B45" t="s" s="2">
+      <c r="B45" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C45" t="s" s="2">
+      <c r="C45" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D45" t="s" s="2">
+      <c r="D45" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E45" t="s" s="2">
+      <c r="E45" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F45" t="s" s="2">
+      <c r="F45" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G45" t="s" s="2">
+      <c r="G45" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H45" t="s" s="2">
+      <c r="H45" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1466,28 +1478,28 @@
       </c>
     </row>
     <row r="47">
-      <c r="B47" t="s" s="2">
+      <c r="B47" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C47" t="s" s="2">
+      <c r="C47" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D47" t="s" s="2">
+      <c r="D47" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E47" t="s" s="2">
+      <c r="E47" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F47" t="s" s="2">
+      <c r="F47" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G47" t="s" s="2">
+      <c r="G47" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H47" t="s" s="2">
+      <c r="H47" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I47" t="s" s="2">
+      <c r="I47" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1691,10 +1703,10 @@
       <c r="I54">
         <f>((C54-C53)^2+(D54- D53)^2)^.5</f>
       </c>
-      <c r="J54" s="2" t="s">
+      <c r="J54" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="K54" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L54" t="n">
@@ -1738,28 +1750,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="s" s="2">
+      <c r="A56" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1784,28 +1796,28 @@
       </c>
     </row>
     <row r="58">
-      <c r="B58" t="s" s="2">
+      <c r="B58" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C58" t="s" s="2">
+      <c r="C58" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D58" t="s" s="2">
+      <c r="D58" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E58" t="s" s="2">
+      <c r="E58" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F58" t="s" s="2">
+      <c r="F58" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G58" t="s" s="2">
+      <c r="G58" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H58" t="s" s="2">
+      <c r="H58" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I58" t="s" s="2">
+      <c r="I58" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1951,10 +1963,10 @@
       <c r="I63">
         <f>((C63-C62)^2+(D63- D62)^2)^.5</f>
       </c>
-      <c r="J63" s="2" t="s">
+      <c r="J63" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K63" s="2" t="s">
+      <c r="K63" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L63" t="n">
@@ -1998,28 +2010,28 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="s" s="2">
+      <c r="A65" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B65" t="s" s="2">
+      <c r="B65" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C65" t="s" s="2">
+      <c r="C65" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D65" t="s" s="2">
+      <c r="D65" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E65" t="s" s="2">
+      <c r="E65" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F65" t="s" s="2">
+      <c r="F65" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G65" t="s" s="2">
+      <c r="G65" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H65" t="s" s="2">
+      <c r="H65" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2044,28 +2056,28 @@
       </c>
     </row>
     <row r="67">
-      <c r="B67" t="s" s="2">
+      <c r="B67" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C67" t="s" s="2">
+      <c r="C67" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D67" t="s" s="2">
+      <c r="D67" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E67" t="s" s="2">
+      <c r="E67" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F67" t="s" s="2">
+      <c r="F67" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G67" t="s" s="2">
+      <c r="G67" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H67" t="s" s="2">
+      <c r="H67" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I67" t="s" s="2">
+      <c r="I67" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2298,10 +2310,10 @@
       <c r="I75">
         <f>((C75-C74)^2+(D75- D74)^2)^.5</f>
       </c>
-      <c r="J75" s="2" t="s">
+      <c r="J75" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K75" s="2" t="s">
+      <c r="K75" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L75" t="n">
@@ -2345,28 +2357,28 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="s" s="2">
+      <c r="A77" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B77" t="s" s="2">
+      <c r="B77" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C77" t="s" s="2">
+      <c r="C77" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D77" t="s" s="2">
+      <c r="D77" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E77" t="s" s="2">
+      <c r="E77" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F77" t="s" s="2">
+      <c r="F77" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G77" t="s" s="2">
+      <c r="G77" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H77" t="s" s="2">
+      <c r="H77" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2391,28 +2403,28 @@
       </c>
     </row>
     <row r="79">
-      <c r="B79" t="s" s="2">
+      <c r="B79" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C79" t="s" s="2">
+      <c r="C79" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D79" t="s" s="2">
+      <c r="D79" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E79" t="s" s="2">
+      <c r="E79" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F79" t="s" s="2">
+      <c r="F79" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G79" t="s" s="2">
+      <c r="G79" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H79" t="s" s="2">
+      <c r="H79" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I79" t="s" s="2">
+      <c r="I79" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2558,10 +2570,10 @@
       <c r="I84">
         <f>((C84-C83)^2+(D84- D83)^2)^.5</f>
       </c>
-      <c r="J84" s="2" t="s">
+      <c r="J84" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K84" s="2" t="s">
+      <c r="K84" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L84" t="n">
@@ -2605,28 +2617,28 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="s" s="2">
+      <c r="A86" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B86" t="s" s="2">
+      <c r="B86" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C86" t="s" s="2">
+      <c r="C86" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D86" t="s" s="2">
+      <c r="D86" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E86" t="s" s="2">
+      <c r="E86" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F86" t="s" s="2">
+      <c r="F86" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G86" t="s" s="2">
+      <c r="G86" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H86" t="s" s="2">
+      <c r="H86" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2651,28 +2663,28 @@
       </c>
     </row>
     <row r="88">
-      <c r="B88" t="s" s="2">
+      <c r="B88" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C88" t="s" s="2">
+      <c r="C88" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D88" t="s" s="2">
+      <c r="D88" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E88" t="s" s="2">
+      <c r="E88" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F88" t="s" s="2">
+      <c r="F88" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G88" t="s" s="2">
+      <c r="G88" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H88" t="s" s="2">
+      <c r="H88" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I88" t="s" s="2">
+      <c r="I88" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2876,10 +2888,10 @@
       <c r="I95">
         <f>((C95-C94)^2+(D95- D94)^2)^.5</f>
       </c>
-      <c r="J95" s="2" t="s">
+      <c r="J95" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="K95" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L95" t="n">
@@ -2923,28 +2935,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="s" s="2">
+      <c r="A97" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2969,28 +2981,28 @@
       </c>
     </row>
     <row r="99">
-      <c r="B99" t="s" s="2">
+      <c r="B99" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C99" t="s" s="2">
+      <c r="C99" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D99" t="s" s="2">
+      <c r="D99" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E99" t="s" s="2">
+      <c r="E99" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F99" t="s" s="2">
+      <c r="F99" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G99" t="s" s="2">
+      <c r="G99" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H99" t="s" s="2">
+      <c r="H99" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I99" t="s" s="2">
+      <c r="I99" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3252,10 +3264,10 @@
       <c r="I108">
         <f>((C108-C107)^2+(D108- D107)^2)^.5</f>
       </c>
-      <c r="J108" s="2" t="s">
+      <c r="J108" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K108" s="2" t="s">
+      <c r="K108" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L108" t="n">
@@ -3299,28 +3311,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="s" s="2">
+      <c r="A110" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3345,28 +3357,28 @@
       </c>
     </row>
     <row r="112">
-      <c r="B112" t="s" s="2">
+      <c r="B112" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C112" t="s" s="2">
+      <c r="C112" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D112" t="s" s="2">
+      <c r="D112" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E112" t="s" s="2">
+      <c r="E112" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F112" t="s" s="2">
+      <c r="F112" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G112" t="s" s="2">
+      <c r="G112" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H112" t="s" s="2">
+      <c r="H112" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I112" t="s" s="2">
+      <c r="I112" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3570,10 +3582,10 @@
       <c r="I119">
         <f>((C119-C118)^2+(D119- D118)^2)^.5</f>
       </c>
-      <c r="J119" s="2" t="s">
+      <c r="J119" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K119" s="2" t="s">
+      <c r="K119" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L119" t="n">
@@ -3617,28 +3629,28 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="s" s="2">
+      <c r="A121" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B121" t="s" s="2">
+      <c r="B121" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C121" t="s" s="2">
+      <c r="C121" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D121" t="s" s="2">
+      <c r="D121" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E121" t="s" s="2">
+      <c r="E121" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F121" t="s" s="2">
+      <c r="F121" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G121" t="s" s="2">
+      <c r="G121" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H121" t="s" s="2">
+      <c r="H121" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3663,28 +3675,28 @@
       </c>
     </row>
     <row r="123">
-      <c r="B123" t="s" s="2">
+      <c r="B123" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C123" t="s" s="2">
+      <c r="C123" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D123" t="s" s="2">
+      <c r="D123" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E123" t="s" s="2">
+      <c r="E123" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F123" t="s" s="2">
+      <c r="F123" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G123" t="s" s="2">
+      <c r="G123" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H123" t="s" s="2">
+      <c r="H123" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I123" t="s" s="2">
+      <c r="I123" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3917,10 +3929,10 @@
       <c r="I131">
         <f>((C131-C130)^2+(D131- D130)^2)^.5</f>
       </c>
-      <c r="J131" s="2" t="s">
+      <c r="J131" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K131" s="2" t="s">
+      <c r="K131" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L131" t="n">
@@ -3964,28 +3976,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="s" s="2">
+      <c r="A133" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4010,28 +4022,28 @@
       </c>
     </row>
     <row r="135">
-      <c r="B135" t="s" s="2">
+      <c r="B135" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C135" t="s" s="2">
+      <c r="C135" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D135" t="s" s="2">
+      <c r="D135" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E135" t="s" s="2">
+      <c r="E135" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F135" t="s" s="2">
+      <c r="F135" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G135" t="s" s="2">
+      <c r="G135" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H135" t="s" s="2">
+      <c r="H135" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I135" t="s" s="2">
+      <c r="I135" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4206,10 +4218,10 @@
       <c r="I141">
         <f>((C141-C140)^2+(D141- D140)^2)^.5</f>
       </c>
-      <c r="J141" s="2" t="s">
+      <c r="J141" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K141" s="2" t="s">
+      <c r="K141" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L141" t="n">
@@ -4253,28 +4265,28 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="s" s="2">
+      <c r="A143" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B143" t="s" s="2">
+      <c r="B143" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C143" t="s" s="2">
+      <c r="C143" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D143" t="s" s="2">
+      <c r="D143" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E143" t="s" s="2">
+      <c r="E143" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F143" t="s" s="2">
+      <c r="F143" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G143" t="s" s="2">
+      <c r="G143" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H143" t="s" s="2">
+      <c r="H143" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4299,28 +4311,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C145" t="s" s="2">
+      <c r="C145" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D145" t="s" s="2">
+      <c r="D145" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I145" t="s" s="2">
+      <c r="I145" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4524,10 +4536,10 @@
       <c r="I152">
         <f>((C152-C151)^2+(D152- D151)^2)^.5</f>
       </c>
-      <c r="J152" s="2" t="s">
+      <c r="J152" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K152" s="2" t="s">
+      <c r="K152" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L152" t="n">
@@ -4571,28 +4583,28 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="s" s="2">
+      <c r="A154" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B154" t="s" s="2">
+      <c r="B154" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C154" t="s" s="2">
+      <c r="C154" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D154" t="s" s="2">
+      <c r="D154" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E154" t="s" s="2">
+      <c r="E154" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F154" t="s" s="2">
+      <c r="F154" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G154" t="s" s="2">
+      <c r="G154" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H154" t="s" s="2">
+      <c r="H154" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4617,28 +4629,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I156" t="s" s="2">
+      <c r="I156" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4813,10 +4825,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
+      <c r="J162" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K162" s="2" t="s">
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4860,28 +4872,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
+      <c r="C164" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D164" t="s" s="2">
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4906,28 +4918,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5073,10 +5085,10 @@
       <c r="I171">
         <f>((C171-C170)^2+(D171- D170)^2)^.5</f>
       </c>
-      <c r="J171" s="2" t="s">
+      <c r="J171" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K171" s="2" t="s">
+      <c r="K171" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L171" t="n">
@@ -5120,28 +5132,28 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="s" s="2">
+      <c r="A173" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B173" t="s" s="2">
+      <c r="B173" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C173" t="s" s="2">
+      <c r="C173" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D173" t="s" s="2">
+      <c r="D173" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E173" t="s" s="2">
+      <c r="E173" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F173" t="s" s="2">
+      <c r="F173" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G173" t="s" s="2">
+      <c r="G173" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H173" t="s" s="2">
+      <c r="H173" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5166,28 +5178,28 @@
       </c>
     </row>
     <row r="175">
-      <c r="B175" t="s" s="2">
+      <c r="B175" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C175" t="s" s="2">
+      <c r="C175" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D175" t="s" s="2">
+      <c r="D175" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E175" t="s" s="2">
+      <c r="E175" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F175" t="s" s="2">
+      <c r="F175" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G175" t="s" s="2">
+      <c r="G175" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H175" t="s" s="2">
+      <c r="H175" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I175" t="s" s="2">
+      <c r="I175" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5362,10 +5374,10 @@
       <c r="I181">
         <f>((C181-C180)^2+(D181- D180)^2)^.5</f>
       </c>
-      <c r="J181" s="2" t="s">
+      <c r="J181" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K181" s="2" t="s">
+      <c r="K181" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L181" t="n">
@@ -5409,28 +5421,28 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="s" s="2">
+      <c r="A183" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B183" t="s" s="2">
+      <c r="B183" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C183" t="s" s="2">
+      <c r="C183" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D183" t="s" s="2">
+      <c r="D183" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E183" t="s" s="2">
+      <c r="E183" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F183" t="s" s="2">
+      <c r="F183" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G183" t="s" s="2">
+      <c r="G183" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H183" t="s" s="2">
+      <c r="H183" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5455,28 +5467,28 @@
       </c>
     </row>
     <row r="185">
-      <c r="B185" t="s" s="2">
+      <c r="B185" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C185" t="s" s="2">
+      <c r="C185" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D185" t="s" s="2">
+      <c r="D185" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E185" t="s" s="2">
+      <c r="E185" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F185" t="s" s="2">
+      <c r="F185" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G185" t="s" s="2">
+      <c r="G185" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H185" t="s" s="2">
+      <c r="H185" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I185" t="s" s="2">
+      <c r="I185" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5622,10 +5634,10 @@
       <c r="I190">
         <f>((C190-C189)^2+(D190- D189)^2)^.5</f>
       </c>
-      <c r="J190" s="2" t="s">
+      <c r="J190" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K190" s="2" t="s">
+      <c r="K190" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L190" t="n">
@@ -5669,28 +5681,28 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="s" s="2">
+      <c r="A192" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B192" t="s" s="2">
+      <c r="B192" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C192" t="s" s="2">
+      <c r="C192" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D192" t="s" s="2">
+      <c r="D192" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E192" t="s" s="2">
+      <c r="E192" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F192" t="s" s="2">
+      <c r="F192" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G192" t="s" s="2">
+      <c r="G192" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H192" t="s" s="2">
+      <c r="H192" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5715,28 +5727,28 @@
       </c>
     </row>
     <row r="194">
-      <c r="B194" t="s" s="2">
+      <c r="B194" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C194" t="s" s="2">
+      <c r="C194" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D194" t="s" s="2">
+      <c r="D194" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E194" t="s" s="2">
+      <c r="E194" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F194" t="s" s="2">
+      <c r="F194" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G194" t="s" s="2">
+      <c r="G194" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H194" t="s" s="2">
+      <c r="H194" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I194" t="s" s="2">
+      <c r="I194" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5795,10 +5807,10 @@
       <c r="I196">
         <f>((C196-C195)^2+(D196- D195)^2)^.5</f>
       </c>
-      <c r="J196" s="2" t="s">
+      <c r="J196" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K196" s="2" t="s">
+      <c r="K196" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L196" t="n">
